--- a/src/TOM.xlsx
+++ b/src/TOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
   <si>
     <t>TOM_Worked</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>18:33:55 04-21-2023</t>
+  </si>
+  <si>
+    <t>21:30:24 04-25-2023</t>
   </si>
   <si>
     <t>Automatically Assigned Ticket</t>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -659,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -667,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -675,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -683,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -691,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -699,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -707,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -715,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -723,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -731,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -739,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -747,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -755,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -763,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -771,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -779,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -787,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -795,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -803,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -811,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -819,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -827,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -835,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -843,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -851,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -859,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -867,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -875,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -883,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -891,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -899,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -907,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -915,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -923,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -931,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -939,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -947,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -955,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -963,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -971,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -979,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -987,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -995,7 +998,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1003,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1011,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1019,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1027,7 +1030,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1035,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1043,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1051,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1059,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1067,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1075,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1083,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1091,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1099,7 +1102,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1107,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1115,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1123,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1131,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1139,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1147,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1155,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1163,7 +1166,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1171,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1179,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1187,7 +1190,15 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
